--- a/public/DptImport/excel.xlsx
+++ b/public/DptImport/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pemilu APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473194C3-F139-4716-8E01-ACE41466E372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6274B0-7AC0-4CB3-ACF8-1E519C1CF383}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{96591EE6-8FB8-411D-9888-2CCFDE2E2194}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96591EE6-8FB8-411D-9888-2CCFDE2E2194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>laki-laki</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>nhk</t>
+  </si>
+  <si>
+    <t>aliff</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFAE5E1-7A9C-4A75-B63E-DD5954B5A660}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,6 +623,19 @@
         <v>1212121266412</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1421212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/DptImport/excel.xlsx
+++ b/public/DptImport/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pemilu APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6274B0-7AC0-4CB3-ACF8-1E519C1CF383}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847DE325-C62C-4BC4-BA34-AA0130F27C7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96591EE6-8FB8-411D-9888-2CCFDE2E2194}"/>
   </bookViews>
@@ -30,11 +30,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>laki-laki</t>
   </si>
   <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>perempuan</t>
+  </si>
+  <si>
+    <t>khatami</t>
+  </si>
+  <si>
     <t>erik</t>
   </si>
   <si>
@@ -44,49 +62,25 @@
     <t>ikhwal</t>
   </si>
   <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>husein</t>
+  </si>
+  <si>
+    <t>maisarah</t>
+  </si>
+  <si>
+    <t>udin</t>
+  </si>
+  <si>
+    <t>rendi</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
-    <t>nik</t>
-  </si>
-  <si>
-    <t>no_hp</t>
-  </si>
-  <si>
-    <t>tgl_lahir</t>
-  </si>
-  <si>
-    <t>jenis_kelamin</t>
-  </si>
-  <si>
-    <t>hanif</t>
-  </si>
-  <si>
-    <t>perempuan</t>
-  </si>
-  <si>
-    <t>husein</t>
-  </si>
-  <si>
-    <t>khatami</t>
-  </si>
-  <si>
-    <t>iiiiw</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>odi</t>
-  </si>
-  <si>
-    <t>ess</t>
-  </si>
-  <si>
-    <t>nhk</t>
-  </si>
-  <si>
-    <t>aliff</t>
+    <t>ijan</t>
   </si>
 </sst>
 </file>
@@ -122,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFAE5E1-7A9C-4A75-B63E-DD5954B5A660}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,30 +450,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>536748950</v>
+        <v>56748950</v>
       </c>
       <c r="C2">
-        <v>8576055727232320</v>
+        <v>82213206368</v>
       </c>
       <c r="D2" s="1">
         <v>37184</v>
@@ -488,14 +483,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>232323121</v>
+        <v>52323121</v>
       </c>
       <c r="C3">
-        <v>212121212</v>
+        <v>82213206378</v>
       </c>
       <c r="D3" s="1">
         <v>37307</v>
@@ -505,14 +500,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>12122312</v>
       </c>
       <c r="C4">
-        <v>8527377186683210</v>
+        <v>82213206568</v>
       </c>
       <c r="D4" s="1">
         <v>36566</v>
@@ -522,119 +517,126 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1212121233</v>
+        <v>12121231</v>
       </c>
       <c r="C5">
-        <v>138663</v>
+        <v>82213206366</v>
       </c>
       <c r="D5" s="1">
         <v>36932</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B6">
+        <v>11134421</v>
+      </c>
+      <c r="C6">
+        <v>82213207788</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36566</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1212121333</v>
+        <v>12121333</v>
       </c>
       <c r="C7">
-        <v>765412</v>
+        <v>82213206563</v>
       </c>
       <c r="D7" s="1">
         <v>1212</v>
       </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>23324212</v>
+      </c>
+      <c r="C8">
+        <v>82213304554</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32518</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>89821112</v>
+      </c>
+      <c r="C9">
+        <v>82213205352</v>
+      </c>
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>12212</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1112</v>
+      <c r="E9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>53674891150</v>
+        <v>74891150</v>
+      </c>
+      <c r="C10">
+        <v>82213206365</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>12121561</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>82213206388</v>
       </c>
       <c r="D11" s="1">
-        <v>36881</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>1212121266412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1421212</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
